--- a/data/trans_bre/P16B11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B11-Edad-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B11-Edad-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-18,33</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="E6" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,33%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,67; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,67; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-3,65</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="E8" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-3,65%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,16; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,16; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,8</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,3%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,8%</t>
         </is>
       </c>
     </row>
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,49; 5,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,71; 5,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,37; 0,0</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,16</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,16%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 7,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 7,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,02; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,25</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,29%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,1%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,25%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,07; 1,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 1,28</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,08; 1,61</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 1,3</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 0,0</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,24</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,24%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-0,33%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 2,37</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,36; 2,46</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,82; 0,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16B11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B11-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -834,7 +834,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -994,7 +994,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-0,25</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-0,29%</t>
+          <t>-0,26%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,25%</t>
+          <t>-0,57%</t>
         </is>
       </c>
     </row>
@@ -1042,39 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 1,58</t>
+          <t>-2,87; 3,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,28</t>
+          <t>-1,0; 1,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,0</t>
+          <t>-3,09; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 1,61</t>
+          <t>-2,87; 3,11</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,3</t>
+          <t>-1,0; 2,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,0</t>
+          <t>-3,09; 0,0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>-0,39%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,24%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-0,33%</t>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1122,44 +1122,124 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-2,66; 2,64</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 2,7</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-0,24</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-0,33</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>-0,24%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>-0,33%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>-1,35; 2,37</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>-0,82; 0,25</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>-1,04; 0,0</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>-1,36; 2,46</t>
         </is>
       </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>-0,82; 0,25</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>-1,04; 0,0</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1169,6 +1249,7 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_bre/P16B11-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P16B11-Edad-trans_bre.xlsx
@@ -722,7 +722,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-79,67; 0,0</t>
+          <t>-78,86; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-79,67; 0,0</t>
+          <t>-78,86; 0,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 0,0</t>
+          <t>-18,44; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -817,7 +817,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 0,0</t>
+          <t>-18,44; 0,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 5,25</t>
+          <t>-7,17; 5,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 0,0</t>
+          <t>-7,34; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,71; 5,66</t>
+          <t>-7,22; 6,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,37; 0,0</t>
+          <t>-7,34; 0,0</t>
         </is>
       </c>
     </row>
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 7,26</t>
+          <t>-0,78; 7,52</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,0</t>
+          <t>-3,54; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 7,85</t>
+          <t>-0,79; 8,22</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 0,0</t>
+          <t>-3,54; 0,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 3,04</t>
+          <t>-2,97; 2,59</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 1,96</t>
+          <t>-1,01; 2,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,0</t>
+          <t>-2,88; 0,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 3,11</t>
+          <t>-2,97; 2,69</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 2,01</t>
+          <t>-1,01; 2,56</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 0,0</t>
+          <t>-2,88; 0,0</t>
         </is>
       </c>
     </row>
@@ -1122,7 +1122,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,64</t>
+          <t>-2,65; 2,2</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 2,7</t>
+          <t>-2,65; 2,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1202,32 +1202,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 2,37</t>
+          <t>-1,4; 2,3</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,25</t>
+          <t>-0,83; 0,28</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,0</t>
+          <t>-1,14; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 2,46</t>
+          <t>-1,42; 2,38</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 0,25</t>
+          <t>-0,83; 0,28</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 0,0</t>
+          <t>-1,14; 0,0</t>
         </is>
       </c>
     </row>
